--- a/app/Datos/Intermodal/IngresosModeloJordi.xlsx
+++ b/app/Datos/Intermodal/IngresosModeloJordi.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="24560" windowHeight="13360" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos Multimodal" sheetId="1" r:id="rId1"/>
     <sheet name="Ingresos Energia" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Flujo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" iterate="1" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Sistema</t>
   </si>
@@ -71,6 +72,27 @@
   </si>
   <si>
     <t>Cuentas</t>
+  </si>
+  <si>
+    <t>Cuenta</t>
+  </si>
+  <si>
+    <t>FENj</t>
+  </si>
+  <si>
+    <t>Inversionesj</t>
+  </si>
+  <si>
+    <t>Costosj</t>
+  </si>
+  <si>
+    <t>Ingresosj</t>
+  </si>
+  <si>
+    <t>Impuestosj</t>
+  </si>
+  <si>
+    <t>IVAj</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
@@ -5082,4 +5104,2199 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CY7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:CY2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1">
+        <v>2012</v>
+      </c>
+      <c r="D1">
+        <v>2013</v>
+      </c>
+      <c r="E1">
+        <v>2014</v>
+      </c>
+      <c r="F1">
+        <v>2015</v>
+      </c>
+      <c r="G1">
+        <v>2016</v>
+      </c>
+      <c r="H1">
+        <v>2017</v>
+      </c>
+      <c r="I1">
+        <v>2018</v>
+      </c>
+      <c r="J1">
+        <v>2019</v>
+      </c>
+      <c r="K1">
+        <v>2020</v>
+      </c>
+      <c r="L1">
+        <v>2021</v>
+      </c>
+      <c r="M1">
+        <v>2022</v>
+      </c>
+      <c r="N1">
+        <v>2023</v>
+      </c>
+      <c r="O1">
+        <v>2024</v>
+      </c>
+      <c r="P1">
+        <v>2025</v>
+      </c>
+      <c r="Q1">
+        <v>2026</v>
+      </c>
+      <c r="R1">
+        <v>2027</v>
+      </c>
+      <c r="S1">
+        <v>2028</v>
+      </c>
+      <c r="T1">
+        <v>2029</v>
+      </c>
+      <c r="U1">
+        <v>2030</v>
+      </c>
+      <c r="V1">
+        <v>2031</v>
+      </c>
+      <c r="W1">
+        <v>2032</v>
+      </c>
+      <c r="X1">
+        <v>2033</v>
+      </c>
+      <c r="Y1">
+        <v>2034</v>
+      </c>
+      <c r="Z1">
+        <v>2035</v>
+      </c>
+      <c r="AA1">
+        <v>2036</v>
+      </c>
+      <c r="AB1">
+        <v>2037</v>
+      </c>
+      <c r="AC1">
+        <v>2038</v>
+      </c>
+      <c r="AD1">
+        <v>2039</v>
+      </c>
+      <c r="AE1">
+        <v>2040</v>
+      </c>
+      <c r="AF1">
+        <v>2041</v>
+      </c>
+      <c r="AG1">
+        <v>2042</v>
+      </c>
+      <c r="AH1">
+        <v>2043</v>
+      </c>
+      <c r="AI1">
+        <v>2044</v>
+      </c>
+      <c r="AJ1">
+        <v>2045</v>
+      </c>
+      <c r="AK1">
+        <v>2046</v>
+      </c>
+      <c r="AL1">
+        <v>2047</v>
+      </c>
+      <c r="AM1">
+        <v>2048</v>
+      </c>
+      <c r="AN1">
+        <v>2049</v>
+      </c>
+      <c r="AO1">
+        <v>2050</v>
+      </c>
+      <c r="AP1">
+        <v>2051</v>
+      </c>
+      <c r="AQ1">
+        <v>2052</v>
+      </c>
+      <c r="AR1">
+        <v>2053</v>
+      </c>
+      <c r="AS1">
+        <v>2054</v>
+      </c>
+      <c r="AT1">
+        <v>2055</v>
+      </c>
+      <c r="AU1">
+        <v>2056</v>
+      </c>
+      <c r="AV1">
+        <v>2057</v>
+      </c>
+      <c r="AW1">
+        <v>2058</v>
+      </c>
+      <c r="AX1">
+        <v>2059</v>
+      </c>
+      <c r="AY1">
+        <v>2060</v>
+      </c>
+      <c r="AZ1">
+        <v>2061</v>
+      </c>
+      <c r="BA1">
+        <v>2062</v>
+      </c>
+      <c r="BB1">
+        <v>2063</v>
+      </c>
+      <c r="BC1">
+        <v>2064</v>
+      </c>
+      <c r="BD1">
+        <v>2065</v>
+      </c>
+      <c r="BE1">
+        <v>2066</v>
+      </c>
+      <c r="BF1">
+        <v>2067</v>
+      </c>
+      <c r="BG1">
+        <v>2068</v>
+      </c>
+      <c r="BH1">
+        <v>2069</v>
+      </c>
+      <c r="BI1">
+        <v>2070</v>
+      </c>
+      <c r="BJ1">
+        <v>2071</v>
+      </c>
+      <c r="BK1">
+        <v>2072</v>
+      </c>
+      <c r="BL1">
+        <v>2073</v>
+      </c>
+      <c r="BM1">
+        <v>2074</v>
+      </c>
+      <c r="BN1">
+        <v>2075</v>
+      </c>
+      <c r="BO1">
+        <v>2076</v>
+      </c>
+      <c r="BP1">
+        <v>2077</v>
+      </c>
+      <c r="BQ1">
+        <v>2078</v>
+      </c>
+      <c r="BR1">
+        <v>2079</v>
+      </c>
+      <c r="BS1">
+        <v>2080</v>
+      </c>
+      <c r="BT1">
+        <v>2081</v>
+      </c>
+      <c r="BU1">
+        <v>2082</v>
+      </c>
+      <c r="BV1">
+        <v>2083</v>
+      </c>
+      <c r="BW1">
+        <v>2084</v>
+      </c>
+      <c r="BX1">
+        <v>2085</v>
+      </c>
+      <c r="BY1">
+        <v>2086</v>
+      </c>
+      <c r="BZ1">
+        <v>2087</v>
+      </c>
+      <c r="CA1">
+        <v>2088</v>
+      </c>
+      <c r="CB1">
+        <v>2089</v>
+      </c>
+      <c r="CC1">
+        <v>2090</v>
+      </c>
+      <c r="CD1">
+        <v>2091</v>
+      </c>
+      <c r="CE1">
+        <v>2092</v>
+      </c>
+      <c r="CF1">
+        <v>2093</v>
+      </c>
+      <c r="CG1">
+        <v>2094</v>
+      </c>
+      <c r="CH1">
+        <v>2095</v>
+      </c>
+      <c r="CI1">
+        <v>2096</v>
+      </c>
+      <c r="CJ1">
+        <v>2097</v>
+      </c>
+      <c r="CK1">
+        <v>2098</v>
+      </c>
+      <c r="CL1">
+        <v>2099</v>
+      </c>
+      <c r="CM1">
+        <v>2100</v>
+      </c>
+      <c r="CN1">
+        <v>2101</v>
+      </c>
+      <c r="CO1">
+        <v>2102</v>
+      </c>
+      <c r="CP1">
+        <v>2103</v>
+      </c>
+      <c r="CQ1">
+        <v>2104</v>
+      </c>
+      <c r="CR1">
+        <v>2105</v>
+      </c>
+      <c r="CS1">
+        <v>2106</v>
+      </c>
+      <c r="CT1">
+        <v>2107</v>
+      </c>
+      <c r="CU1">
+        <v>2108</v>
+      </c>
+      <c r="CV1">
+        <v>2109</v>
+      </c>
+      <c r="CW1">
+        <v>2110</v>
+      </c>
+      <c r="CX1">
+        <v>2111</v>
+      </c>
+      <c r="CY1">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-545988.94935794256</v>
+      </c>
+      <c r="F2">
+        <v>-1388400.5769352256</v>
+      </c>
+      <c r="G2">
+        <v>-1423110.5913586062</v>
+      </c>
+      <c r="H2">
+        <v>-1458688.3561425712</v>
+      </c>
+      <c r="I2">
+        <v>-393880.91991969658</v>
+      </c>
+      <c r="J2">
+        <v>214923.49041818682</v>
+      </c>
+      <c r="K2">
+        <v>419470.12200189522</v>
+      </c>
+      <c r="L2">
+        <v>456373.8430400276</v>
+      </c>
+      <c r="M2">
+        <v>493429.14596353588</v>
+      </c>
+      <c r="N2">
+        <v>536119.09541314922</v>
+      </c>
+      <c r="O2">
+        <v>581155.05422336003</v>
+      </c>
+      <c r="P2">
+        <v>512605.10273974831</v>
+      </c>
+      <c r="Q2">
+        <v>680699.34480994358</v>
+      </c>
+      <c r="R2">
+        <v>620985.91371290572</v>
+      </c>
+      <c r="S2">
+        <v>194638.28951436136</v>
+      </c>
+      <c r="T2">
+        <v>695481.21932095615</v>
+      </c>
+      <c r="U2">
+        <v>587884.24670506769</v>
+      </c>
+      <c r="V2">
+        <v>787416.23008613684</v>
+      </c>
+      <c r="W2">
+        <v>839702.1214632499</v>
+      </c>
+      <c r="X2">
+        <v>895243.55927178264</v>
+      </c>
+      <c r="Y2">
+        <v>953391.93776024249</v>
+      </c>
+      <c r="Z2">
+        <v>1021262.0120180191</v>
+      </c>
+      <c r="AA2">
+        <v>956037.59915219771</v>
+      </c>
+      <c r="AB2">
+        <v>1149906.4849077438</v>
+      </c>
+      <c r="AC2">
+        <v>1048376.7357342071</v>
+      </c>
+      <c r="AD2">
+        <v>1282406.2304495052</v>
+      </c>
+      <c r="AE2">
+        <v>1363644.8883236921</v>
+      </c>
+      <c r="AF2">
+        <v>1442788.413921467</v>
+      </c>
+      <c r="AG2">
+        <v>1080848.4177521693</v>
+      </c>
+      <c r="AH2">
+        <v>1593061.9076555416</v>
+      </c>
+      <c r="AI2">
+        <v>1687319.5562274801</v>
+      </c>
+      <c r="AJ2">
+        <v>1721011.8558482116</v>
+      </c>
+      <c r="AK2">
+        <v>1607358.5067264307</v>
+      </c>
+      <c r="AL2">
+        <v>1778484.0948211481</v>
+      </c>
+      <c r="AM2">
+        <v>1812848.8547981533</v>
+      </c>
+      <c r="AN2">
+        <v>1858170.0761681069</v>
+      </c>
+      <c r="AO2">
+        <v>1904624.3280723095</v>
+      </c>
+      <c r="AP2">
+        <v>1952239.9362741171</v>
+      </c>
+      <c r="AQ2">
+        <v>2001045.9346809699</v>
+      </c>
+      <c r="AR2">
+        <v>2051072.0830479939</v>
+      </c>
+      <c r="AS2">
+        <v>2102348.885124193</v>
+      </c>
+      <c r="AT2">
+        <v>2154907.6072522979</v>
+      </c>
+      <c r="AU2">
+        <v>2207846.913791379</v>
+      </c>
+      <c r="AV2">
+        <v>2261883.7496864381</v>
+      </c>
+      <c r="AW2">
+        <v>2317241.2671857742</v>
+      </c>
+      <c r="AX2">
+        <v>2373980.3850614289</v>
+      </c>
+      <c r="AY2">
+        <v>2432127.2253063899</v>
+      </c>
+      <c r="AZ2">
+        <v>2491789.1287594144</v>
+      </c>
+      <c r="BA2">
+        <v>2552939.0828636354</v>
+      </c>
+      <c r="BB2">
+        <v>2615614.2947364291</v>
+      </c>
+      <c r="BC2">
+        <v>2679852.9016840118</v>
+      </c>
+      <c r="BD2">
+        <v>2745713.4930785773</v>
+      </c>
+      <c r="BE2">
+        <v>2813209.6932202955</v>
+      </c>
+      <c r="BF2">
+        <v>2882389.610181462</v>
+      </c>
+      <c r="BG2">
+        <v>2953286.0052989693</v>
+      </c>
+      <c r="BH2">
+        <v>3025951.4389438489</v>
+      </c>
+      <c r="BI2">
+        <v>3100430.1390853687</v>
+      </c>
+      <c r="BJ2">
+        <v>3176767.4393957607</v>
+      </c>
+      <c r="BK2">
+        <v>3254984.4347984879</v>
+      </c>
+      <c r="BL2">
+        <v>3335154.3324925951</v>
+      </c>
+      <c r="BM2">
+        <v>3417325.9522811621</v>
+      </c>
+      <c r="BN2">
+        <v>3501549.3344572107</v>
+      </c>
+      <c r="BO2">
+        <v>3587867.9708669875</v>
+      </c>
+      <c r="BP2">
+        <v>3676342.2979821539</v>
+      </c>
+      <c r="BQ2">
+        <v>3767137.1211375166</v>
+      </c>
+      <c r="BR2">
+        <v>3859974.9241380552</v>
+      </c>
+      <c r="BS2">
+        <v>3955245.0739703542</v>
+      </c>
+      <c r="BT2">
+        <v>4052894.6853250852</v>
+      </c>
+      <c r="BU2">
+        <v>4152983.2404658291</v>
+      </c>
+      <c r="BV2">
+        <v>4255571.7087047901</v>
+      </c>
+      <c r="BW2">
+        <v>4360722.5835789861</v>
+      </c>
+      <c r="BX2">
+        <v>4468499.920955861</v>
+      </c>
+      <c r="BY2">
+        <v>4578969.3780915346</v>
+      </c>
+      <c r="BZ2">
+        <v>4692198.2536654919</v>
+      </c>
+      <c r="CA2">
+        <v>4808255.5288161663</v>
+      </c>
+      <c r="CB2">
+        <v>4927211.9092023848</v>
+      </c>
+      <c r="CC2">
+        <v>5049139.8681163732</v>
+      </c>
+      <c r="CD2">
+        <v>5174113.6906745713</v>
+      </c>
+      <c r="CE2">
+        <v>5302209.5191132259</v>
+      </c>
+      <c r="CF2">
+        <v>5433505.3992163679</v>
+      </c>
+      <c r="CG2">
+        <v>5568081.3279044926</v>
+      </c>
+      <c r="CH2">
+        <v>5706019.3020129548</v>
+      </c>
+      <c r="CI2">
+        <v>5847403.3682898348</v>
+      </c>
+      <c r="CJ2">
+        <v>5992319.6746437205</v>
+      </c>
+      <c r="CK2">
+        <v>6140856.5226727296</v>
+      </c>
+      <c r="CL2">
+        <v>6293104.4215067122</v>
+      </c>
+      <c r="CM2">
+        <v>6449156.1429955438</v>
+      </c>
+      <c r="CN2">
+        <v>6609106.7782770991</v>
+      </c>
+      <c r="CO2">
+        <v>6773053.7957594432</v>
+      </c>
+      <c r="CP2">
+        <v>6941097.1005525691</v>
+      </c>
+      <c r="CQ2">
+        <v>7113339.0953859333</v>
+      </c>
+      <c r="CR2">
+        <v>7289884.7430489184</v>
+      </c>
+      <c r="CS2">
+        <v>7470841.6303923279</v>
+      </c>
+      <c r="CT2">
+        <v>7656320.0339298956</v>
+      </c>
+      <c r="CU2">
+        <v>7846432.9870798513</v>
+      </c>
+      <c r="CV2">
+        <v>8041296.3490875121</v>
+      </c>
+      <c r="CW2">
+        <v>8241028.8756709462</v>
+      </c>
+      <c r="CX2">
+        <v>8445752.2914327718</v>
+      </c>
+      <c r="CY2">
+        <v>8655591.3640822675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>-545988.94935794256</v>
+      </c>
+      <c r="F3">
+        <v>-1388400.5769352256</v>
+      </c>
+      <c r="G3">
+        <v>-1423110.5913586062</v>
+      </c>
+      <c r="H3">
+        <v>-1458688.3561425712</v>
+      </c>
+      <c r="I3">
+        <v>-435928.75590622518</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>-119654.75869319309</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>-538461.36749957409</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>-168131.20976876095</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>-139271.89811785892</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>-186228.68467645999</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>-506142.83537974581</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>-155589.64732063562</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>-344879.34355020744</v>
+      </c>
+      <c r="J4">
+        <v>-359048.61687040766</v>
+      </c>
+      <c r="K4">
+        <v>-373208.72480089328</v>
+      </c>
+      <c r="L4">
+        <v>-388169.12440973008</v>
+      </c>
+      <c r="M4">
+        <v>-406996.80436556786</v>
+      </c>
+      <c r="N4">
+        <v>-423320.49319900153</v>
+      </c>
+      <c r="O4">
+        <v>-441788.33855621121</v>
+      </c>
+      <c r="P4">
+        <v>-472483.39939290378</v>
+      </c>
+      <c r="Q4">
+        <v>-491140.95821146492</v>
+      </c>
+      <c r="R4">
+        <v>-510759.25740941695</v>
+      </c>
+      <c r="S4">
+        <v>-531384.56621141336</v>
+      </c>
+      <c r="T4">
+        <v>-583268.40346481302</v>
+      </c>
+      <c r="U4">
+        <v>-625601.74497907236</v>
+      </c>
+      <c r="V4">
+        <v>-649885.71893305762</v>
+      </c>
+      <c r="W4">
+        <v>-675381.91770045226</v>
+      </c>
+      <c r="X4">
+        <v>-700895.00500178081</v>
+      </c>
+      <c r="Y4">
+        <v>-728640.57722764695</v>
+      </c>
+      <c r="Z4">
+        <v>-756578.56245716102</v>
+      </c>
+      <c r="AA4">
+        <v>-800500.57278617215</v>
+      </c>
+      <c r="AB4">
+        <v>-830637.76874993113</v>
+      </c>
+      <c r="AC4">
+        <v>-882733.73991122213</v>
+      </c>
+      <c r="AD4">
+        <v>-917361.71218500123</v>
+      </c>
+      <c r="AE4">
+        <v>-952316.49577095197</v>
+      </c>
+      <c r="AF4">
+        <v>-988867.34198810929</v>
+      </c>
+      <c r="AG4">
+        <v>-1027084.40616973</v>
+      </c>
+      <c r="AH4">
+        <v>-1100653.5309879354</v>
+      </c>
+      <c r="AI4">
+        <v>-1142447.7283815756</v>
+      </c>
+      <c r="AJ4">
+        <v>-1184486.2061704099</v>
+      </c>
+      <c r="AK4">
+        <v>-1245463.0531910611</v>
+      </c>
+      <c r="AL4">
+        <v>-1291520.6397694983</v>
+      </c>
+      <c r="AM4">
+        <v>-1339836.1833725031</v>
+      </c>
+      <c r="AN4">
+        <v>-1373332.0879568155</v>
+      </c>
+      <c r="AO4">
+        <v>-1407665.3901557354</v>
+      </c>
+      <c r="AP4">
+        <v>-1442857.024909629</v>
+      </c>
+      <c r="AQ4">
+        <v>-1478928.4505323698</v>
+      </c>
+      <c r="AR4">
+        <v>-1515901.661795679</v>
+      </c>
+      <c r="AS4">
+        <v>-1553799.2033405709</v>
+      </c>
+      <c r="AT4">
+        <v>-1592644.1834240854</v>
+      </c>
+      <c r="AU4">
+        <v>-1632460.2880096866</v>
+      </c>
+      <c r="AV4">
+        <v>-1673271.7952099291</v>
+      </c>
+      <c r="AW4">
+        <v>-1715103.5900901768</v>
+      </c>
+      <c r="AX4">
+        <v>-1757981.1798424316</v>
+      </c>
+      <c r="AY4">
+        <v>-1801930.7093384922</v>
+      </c>
+      <c r="AZ4">
+        <v>-1846978.9770719544</v>
+      </c>
+      <c r="BA4">
+        <v>-1893153.4514987532</v>
+      </c>
+      <c r="BB4">
+        <v>-1940482.2877862225</v>
+      </c>
+      <c r="BC4">
+        <v>-1988994.3449808778</v>
+      </c>
+      <c r="BD4">
+        <v>-2038719.203605399</v>
+      </c>
+      <c r="BE4">
+        <v>-2089687.183695534</v>
+      </c>
+      <c r="BF4">
+        <v>-2141929.3632879225</v>
+      </c>
+      <c r="BG4">
+        <v>-2195477.5973701207</v>
+      </c>
+      <c r="BH4">
+        <v>-2250364.5373043735</v>
+      </c>
+      <c r="BI4">
+        <v>-2306623.6507369825</v>
+      </c>
+      <c r="BJ4">
+        <v>-2364289.2420054069</v>
+      </c>
+      <c r="BK4">
+        <v>-2423396.473055542</v>
+      </c>
+      <c r="BL4">
+        <v>-2483981.3848819304</v>
+      </c>
+      <c r="BM4">
+        <v>-2546080.9195039785</v>
+      </c>
+      <c r="BN4">
+        <v>-2609732.9424915789</v>
+      </c>
+      <c r="BO4">
+        <v>-2674976.2660538675</v>
+      </c>
+      <c r="BP4">
+        <v>-2741850.6727052135</v>
+      </c>
+      <c r="BQ4">
+        <v>-2810396.9395228443</v>
+      </c>
+      <c r="BR4">
+        <v>-2880656.863010915</v>
+      </c>
+      <c r="BS4">
+        <v>-2952673.2845861884</v>
+      </c>
+      <c r="BT4">
+        <v>-3026490.116700842</v>
+      </c>
+      <c r="BU4">
+        <v>-3102152.3696183632</v>
+      </c>
+      <c r="BV4">
+        <v>-3179706.1788588227</v>
+      </c>
+      <c r="BW4">
+        <v>-3259198.8333302923</v>
+      </c>
+      <c r="BX4">
+        <v>-3340678.8041635491</v>
+      </c>
+      <c r="BY4">
+        <v>-3424195.7742676381</v>
+      </c>
+      <c r="BZ4">
+        <v>-3509800.6686243289</v>
+      </c>
+      <c r="CA4">
+        <v>-3597545.685339937</v>
+      </c>
+      <c r="CB4">
+        <v>-3687484.3274734356</v>
+      </c>
+      <c r="CC4">
+        <v>-3779671.4356602705</v>
+      </c>
+      <c r="CD4">
+        <v>-3874163.2215517783</v>
+      </c>
+      <c r="CE4">
+        <v>-3971017.3020905722</v>
+      </c>
+      <c r="CF4">
+        <v>-4070292.7346428358</v>
+      </c>
+      <c r="CG4">
+        <v>-4172050.053008907</v>
+      </c>
+      <c r="CH4">
+        <v>-4276351.3043341301</v>
+      </c>
+      <c r="CI4">
+        <v>-4383260.0869424827</v>
+      </c>
+      <c r="CJ4">
+        <v>-4492841.5891160434</v>
+      </c>
+      <c r="CK4">
+        <v>-4605162.6288439445</v>
+      </c>
+      <c r="CL4">
+        <v>-4720291.6945650438</v>
+      </c>
+      <c r="CM4">
+        <v>-4838298.9869291689</v>
+      </c>
+      <c r="CN4">
+        <v>-4959256.4616023973</v>
+      </c>
+      <c r="CO4">
+        <v>-5083237.8731424576</v>
+      </c>
+      <c r="CP4">
+        <v>-5210318.8199710194</v>
+      </c>
+      <c r="CQ4">
+        <v>-5340576.7904702928</v>
+      </c>
+      <c r="CR4">
+        <v>-5474091.2102320511</v>
+      </c>
+      <c r="CS4">
+        <v>-5610943.4904878521</v>
+      </c>
+      <c r="CT4">
+        <v>-5751217.0777500495</v>
+      </c>
+      <c r="CU4">
+        <v>-5894997.5046937987</v>
+      </c>
+      <c r="CV4">
+        <v>-6042372.4423111444</v>
+      </c>
+      <c r="CW4">
+        <v>-6193431.7533689234</v>
+      </c>
+      <c r="CX4">
+        <v>-6348267.547203145</v>
+      </c>
+      <c r="CY4">
+        <v>-6506974.2358832248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>400943.12486557889</v>
+      </c>
+      <c r="J5">
+        <v>645613.27076132339</v>
+      </c>
+      <c r="K5">
+        <v>932502.22080342018</v>
+      </c>
+      <c r="L5">
+        <v>996667.58179643354</v>
+      </c>
+      <c r="M5">
+        <v>1064902.332316949</v>
+      </c>
+      <c r="N5">
+        <v>1138145.9537498672</v>
+      </c>
+      <c r="O5">
+        <v>1216661.7441873578</v>
+      </c>
+      <c r="P5">
+        <v>1315496.547970159</v>
+      </c>
+      <c r="Q5">
+        <v>1405762.0025915154</v>
+      </c>
+      <c r="R5">
+        <v>1496451.1839378388</v>
+      </c>
+      <c r="S5">
+        <v>1592470.7454399634</v>
+      </c>
+      <c r="T5">
+        <v>1687206.8468314102</v>
+      </c>
+      <c r="U5">
+        <v>1793601.2867276077</v>
+      </c>
+      <c r="V5">
+        <v>1899752.7508158144</v>
+      </c>
+      <c r="W5">
+        <v>2008242.427959579</v>
+      </c>
+      <c r="X5">
+        <v>2121916.5276554041</v>
+      </c>
+      <c r="Y5">
+        <v>2241961.1133550159</v>
+      </c>
+      <c r="Z5">
+        <v>2377629.3751841756</v>
+      </c>
+      <c r="AA5">
+        <v>2512559.0957955588</v>
+      </c>
+      <c r="AB5">
+        <v>2655886.1574923815</v>
+      </c>
+      <c r="AC5">
+        <v>2806952.7530056536</v>
+      </c>
+      <c r="AD5">
+        <v>2952927.1573429462</v>
+      </c>
+      <c r="AE5">
+        <v>3116832.1915228446</v>
+      </c>
+      <c r="AF5">
+        <v>3279007.6815459938</v>
+      </c>
+      <c r="AG5">
+        <v>3449709.9821798028</v>
+      </c>
+      <c r="AH5">
+        <v>3629323.2256792709</v>
+      </c>
+      <c r="AI5">
+        <v>3820732.7382664643</v>
+      </c>
+      <c r="AJ5">
+        <v>3916251.0567231262</v>
+      </c>
+      <c r="AK5">
+        <v>4014157.333141204</v>
+      </c>
+      <c r="AL5">
+        <v>4114511.2664697333</v>
+      </c>
+      <c r="AM5">
+        <v>4217374.0481314762</v>
+      </c>
+      <c r="AN5">
+        <v>4322808.3993347632</v>
+      </c>
+      <c r="AO5">
+        <v>4430878.6093181316</v>
+      </c>
+      <c r="AP5">
+        <v>4541650.574551085</v>
+      </c>
+      <c r="AQ5">
+        <v>4655191.8389148619</v>
+      </c>
+      <c r="AR5">
+        <v>4771571.6348877326</v>
+      </c>
+      <c r="AS5">
+        <v>4890860.9257599246</v>
+      </c>
+      <c r="AT5">
+        <v>5013132.4489039229</v>
+      </c>
+      <c r="AU5">
+        <v>5138460.7601265209</v>
+      </c>
+      <c r="AV5">
+        <v>5266922.279129683</v>
+      </c>
+      <c r="AW5">
+        <v>5398595.3361079246</v>
+      </c>
+      <c r="AX5">
+        <v>5533560.2195106223</v>
+      </c>
+      <c r="AY5">
+        <v>5671899.2249983866</v>
+      </c>
+      <c r="AZ5">
+        <v>5813696.7056233473</v>
+      </c>
+      <c r="BA5">
+        <v>5959039.12326393</v>
+      </c>
+      <c r="BB5">
+        <v>6108015.1013455279</v>
+      </c>
+      <c r="BC5">
+        <v>6260715.4788791658</v>
+      </c>
+      <c r="BD5">
+        <v>6417233.3658511434</v>
+      </c>
+      <c r="BE5">
+        <v>6577664.1999974223</v>
+      </c>
+      <c r="BF5">
+        <v>6742105.8049973575</v>
+      </c>
+      <c r="BG5">
+        <v>6910658.4501222912</v>
+      </c>
+      <c r="BH5">
+        <v>7083424.9113753475</v>
+      </c>
+      <c r="BI5">
+        <v>7260510.5341597311</v>
+      </c>
+      <c r="BJ5">
+        <v>7442023.2975137234</v>
+      </c>
+      <c r="BK5">
+        <v>7628073.8799515674</v>
+      </c>
+      <c r="BL5">
+        <v>7818775.7269503549</v>
+      </c>
+      <c r="BM5">
+        <v>8014245.1201241128</v>
+      </c>
+      <c r="BN5">
+        <v>8214601.2481272146</v>
+      </c>
+      <c r="BO5">
+        <v>8419966.2793303952</v>
+      </c>
+      <c r="BP5">
+        <v>8630465.4363136534</v>
+      </c>
+      <c r="BQ5">
+        <v>8846227.0722214952</v>
+      </c>
+      <c r="BR5">
+        <v>9067382.7490270305</v>
+      </c>
+      <c r="BS5">
+        <v>9294067.3177527059</v>
+      </c>
+      <c r="BT5">
+        <v>9526419.0006965231</v>
+      </c>
+      <c r="BU5">
+        <v>9764579.4757139347</v>
+      </c>
+      <c r="BV5">
+        <v>10008693.962606784</v>
+      </c>
+      <c r="BW5">
+        <v>10258911.311671954</v>
+      </c>
+      <c r="BX5">
+        <v>10515384.094463749</v>
+      </c>
+      <c r="BY5">
+        <v>10778268.696825342</v>
+      </c>
+      <c r="BZ5">
+        <v>11047725.414245974</v>
+      </c>
+      <c r="CA5">
+        <v>11323918.549602125</v>
+      </c>
+      <c r="CB5">
+        <v>11607016.513342177</v>
+      </c>
+      <c r="CC5">
+        <v>11897191.926175732</v>
+      </c>
+      <c r="CD5">
+        <v>12194621.724330124</v>
+      </c>
+      <c r="CE5">
+        <v>12499487.267438374</v>
+      </c>
+      <c r="CF5">
+        <v>12811974.449124333</v>
+      </c>
+      <c r="CG5">
+        <v>13132273.810352441</v>
+      </c>
+      <c r="CH5">
+        <v>13460580.655611251</v>
+      </c>
+      <c r="CI5">
+        <v>13797095.172001533</v>
+      </c>
+      <c r="CJ5">
+        <v>14142022.551301569</v>
+      </c>
+      <c r="CK5">
+        <v>14495573.115084108</v>
+      </c>
+      <c r="CL5">
+        <v>14857962.442961209</v>
+      </c>
+      <c r="CM5">
+        <v>15229411.504035238</v>
+      </c>
+      <c r="CN5">
+        <v>15610146.791636119</v>
+      </c>
+      <c r="CO5">
+        <v>16000400.461427022</v>
+      </c>
+      <c r="CP5">
+        <v>16400410.472962696</v>
+      </c>
+      <c r="CQ5">
+        <v>16810420.73478676</v>
+      </c>
+      <c r="CR5">
+        <v>17230681.253156427</v>
+      </c>
+      <c r="CS5">
+        <v>17661448.284485336</v>
+      </c>
+      <c r="CT5">
+        <v>18102984.491597466</v>
+      </c>
+      <c r="CU5">
+        <v>18555559.103887402</v>
+      </c>
+      <c r="CV5">
+        <v>19019448.081484586</v>
+      </c>
+      <c r="CW5">
+        <v>19494934.283521701</v>
+      </c>
+      <c r="CX5">
+        <v>19982307.640609741</v>
+      </c>
+      <c r="CY5">
+        <v>20481865.331624985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>-14015.94532884287</v>
+      </c>
+      <c r="J6">
+        <v>-71641.163472728935</v>
+      </c>
+      <c r="K6">
+        <v>-139823.37400063174</v>
+      </c>
+      <c r="L6">
+        <v>-152124.61434667587</v>
+      </c>
+      <c r="M6">
+        <v>-164476.38198784529</v>
+      </c>
+      <c r="N6">
+        <v>-178706.36513771641</v>
+      </c>
+      <c r="O6">
+        <v>-193718.35140778666</v>
+      </c>
+      <c r="P6">
+        <v>-210753.2871443138</v>
+      </c>
+      <c r="Q6">
+        <v>-228655.26109501263</v>
+      </c>
+      <c r="R6">
+        <v>-246422.98163210545</v>
+      </c>
+      <c r="S6">
+        <v>-265271.54480713751</v>
+      </c>
+      <c r="T6">
+        <v>-275984.61084164929</v>
+      </c>
+      <c r="U6">
+        <v>-291999.88543713384</v>
+      </c>
+      <c r="V6">
+        <v>-312466.75797068921</v>
+      </c>
+      <c r="W6">
+        <v>-333215.12756478169</v>
+      </c>
+      <c r="X6">
+        <v>-355255.38066340581</v>
+      </c>
+      <c r="Y6">
+        <v>-378330.13403184223</v>
+      </c>
+      <c r="Z6">
+        <v>-405262.70318175363</v>
+      </c>
+      <c r="AA6">
+        <v>-428014.63075234659</v>
+      </c>
+      <c r="AB6">
+        <v>-456312.0971856126</v>
+      </c>
+      <c r="AC6">
+        <v>-481054.75327360787</v>
+      </c>
+      <c r="AD6">
+        <v>-508891.36128948623</v>
+      </c>
+      <c r="AE6">
+        <v>-541128.92393797322</v>
+      </c>
+      <c r="AF6">
+        <v>-572535.08488947107</v>
+      </c>
+      <c r="AG6">
+        <v>-605656.39400251815</v>
+      </c>
+      <c r="AH6">
+        <v>-632167.42367283383</v>
+      </c>
+      <c r="AI6">
+        <v>-669571.25247122219</v>
+      </c>
+      <c r="AJ6">
+        <v>-682941.21263817896</v>
+      </c>
+      <c r="AK6">
+        <v>-692173.56998753559</v>
+      </c>
+      <c r="AL6">
+        <v>-705747.65667505877</v>
+      </c>
+      <c r="AM6">
+        <v>-719384.46618974314</v>
+      </c>
+      <c r="AN6">
+        <v>-737369.07784448692</v>
+      </c>
+      <c r="AO6">
+        <v>-755803.30479059904</v>
+      </c>
+      <c r="AP6">
+        <v>-774698.387410364</v>
+      </c>
+      <c r="AQ6">
+        <v>-794065.84709562303</v>
+      </c>
+      <c r="AR6">
+        <v>-813917.49327301339</v>
+      </c>
+      <c r="AS6">
+        <v>-834265.43060483842</v>
+      </c>
+      <c r="AT6">
+        <v>-855122.06636995927</v>
+      </c>
+      <c r="AU6">
+        <v>-877433.5016714352</v>
+      </c>
+      <c r="AV6">
+        <v>-900528.67616294487</v>
+      </c>
+      <c r="AW6">
+        <v>-924231.46930984361</v>
+      </c>
+      <c r="AX6">
+        <v>-948529.16984657873</v>
+      </c>
+      <c r="AY6">
+        <v>-973445.06847431697</v>
+      </c>
+      <c r="AZ6">
+        <v>-998922.47236581135</v>
+      </c>
+      <c r="BA6">
+        <v>-1025040.3082897196</v>
+      </c>
+      <c r="BB6">
+        <v>-1051814.5811957596</v>
+      </c>
+      <c r="BC6">
+        <v>-1079261.6961464817</v>
+      </c>
+      <c r="BD6">
+        <v>-1107378.9696976785</v>
+      </c>
+      <c r="BE6">
+        <v>-1136210.081125366</v>
+      </c>
+      <c r="BF6">
+        <v>-1165765.6585228401</v>
+      </c>
+      <c r="BG6">
+        <v>-1196073.1451229409</v>
+      </c>
+      <c r="BH6">
+        <v>-1227141.6902386078</v>
+      </c>
+      <c r="BI6">
+        <v>-1258990.3183266507</v>
+      </c>
+      <c r="BJ6">
+        <v>-1291638.5294515579</v>
+      </c>
+      <c r="BK6">
+        <v>-1325131.6832700139</v>
+      </c>
+      <c r="BL6">
+        <v>-1359464.6885276188</v>
+      </c>
+      <c r="BM6">
+        <v>-1394658.5442645559</v>
+      </c>
+      <c r="BN6">
+        <v>-1430734.7745021491</v>
+      </c>
+      <c r="BO6">
+        <v>-1467723.2408163568</v>
+      </c>
+      <c r="BP6">
+        <v>-1505638.6939932734</v>
+      </c>
+      <c r="BQ6">
+        <v>-1544504.0356372972</v>
+      </c>
+      <c r="BR6">
+        <v>-1584343.8555561262</v>
+      </c>
+      <c r="BS6">
+        <v>-1625181.6752161814</v>
+      </c>
+      <c r="BT6">
+        <v>-1667042.7325911138</v>
+      </c>
+      <c r="BU6">
+        <v>-1709952.6128982739</v>
+      </c>
+      <c r="BV6">
+        <v>-1753937.5409934167</v>
+      </c>
+      <c r="BW6">
+        <v>-1799024.3973616762</v>
+      </c>
+      <c r="BX6">
+        <v>-1845240.7345083151</v>
+      </c>
+      <c r="BY6">
+        <v>-1892614.7937592459</v>
+      </c>
+      <c r="BZ6">
+        <v>-1941175.5224815565</v>
+      </c>
+      <c r="CA6">
+        <v>-1990952.5917345593</v>
+      </c>
+      <c r="CB6">
+        <v>-2041976.4143621088</v>
+      </c>
+      <c r="CC6">
+        <v>-2094278.1635372327</v>
+      </c>
+      <c r="CD6">
+        <v>-2147889.791770373</v>
+      </c>
+      <c r="CE6">
+        <v>-2202844.0503928405</v>
+      </c>
+      <c r="CF6">
+        <v>-2259174.5095273498</v>
+      </c>
+      <c r="CG6">
+        <v>-2316915.5785578182</v>
+      </c>
+      <c r="CH6">
+        <v>-2376102.527110911</v>
+      </c>
+      <c r="CI6">
+        <v>-2436771.5065621296</v>
+      </c>
+      <c r="CJ6">
+        <v>-2498959.5720795412</v>
+      </c>
+      <c r="CK6">
+        <v>-2562704.7052186141</v>
+      </c>
+      <c r="CL6">
+        <v>-2628045.8370819138</v>
+      </c>
+      <c r="CM6">
+        <v>-2695022.8720577979</v>
+      </c>
+      <c r="CN6">
+        <v>-2763676.7121525761</v>
+      </c>
+      <c r="CO6">
+        <v>-2834049.2819309728</v>
+      </c>
+      <c r="CP6">
+        <v>-2906183.5540801059</v>
+      </c>
+      <c r="CQ6">
+        <v>-2980123.5756125585</v>
+      </c>
+      <c r="CR6">
+        <v>-3055914.4947245331</v>
+      </c>
+      <c r="CS6">
+        <v>-3133602.5883254586</v>
+      </c>
+      <c r="CT6">
+        <v>-3213235.2902558316</v>
+      </c>
+      <c r="CU6">
+        <v>-3294861.2202105178</v>
+      </c>
+      <c r="CV6">
+        <v>-3378530.2133851154</v>
+      </c>
+      <c r="CW6">
+        <v>-3464293.3508634972</v>
+      </c>
+      <c r="CX6">
+        <v>-3552202.9907650305</v>
+      </c>
+      <c r="CY6">
+        <v>-3642312.8001704812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>-5266.4384750943136</v>
+      </c>
+      <c r="R7">
+        <v>-118283.03118341061</v>
+      </c>
+      <c r="S7">
+        <v>-62714.977407477141</v>
+      </c>
+      <c r="T7">
+        <v>-132472.61320399167</v>
+      </c>
+      <c r="U7">
+        <v>-119984.1998375729</v>
+      </c>
+      <c r="V7">
+        <v>-149984.0438259308</v>
+      </c>
+      <c r="W7">
+        <v>-159943.26123109524</v>
+      </c>
+      <c r="X7">
+        <v>-170522.5827184348</v>
+      </c>
+      <c r="Y7">
+        <v>-181598.46433528425</v>
+      </c>
+      <c r="Z7">
+        <v>-194526.09752724174</v>
+      </c>
+      <c r="AA7">
+        <v>-188734.39498698327</v>
+      </c>
+      <c r="AB7">
+        <v>-219029.80664909404</v>
+      </c>
+      <c r="AC7">
+        <v>-208558.83941015654</v>
+      </c>
+      <c r="AD7">
+        <v>-244267.8534189534</v>
+      </c>
+      <c r="AE7">
+        <v>-259741.8834902271</v>
+      </c>
+      <c r="AF7">
+        <v>-274816.84074694611</v>
+      </c>
+      <c r="AG7">
+        <v>-229977.92887563928</v>
+      </c>
+      <c r="AH7">
+        <v>-303440.36336296028</v>
+      </c>
+      <c r="AI7">
+        <v>-321394.20118618663</v>
+      </c>
+      <c r="AJ7">
+        <v>-327811.78206632589</v>
+      </c>
+      <c r="AK7">
+        <v>-313572.5559155409</v>
+      </c>
+      <c r="AL7">
+        <v>-338758.87520402821</v>
+      </c>
+      <c r="AM7">
+        <v>-345304.54377107671</v>
+      </c>
+      <c r="AN7">
+        <v>-353937.15736535366</v>
+      </c>
+      <c r="AO7">
+        <v>-362785.58629948751</v>
+      </c>
+      <c r="AP7">
+        <v>-371855.22595697478</v>
+      </c>
+      <c r="AQ7">
+        <v>-381151.60660589911</v>
+      </c>
+      <c r="AR7">
+        <v>-390680.39677104639</v>
+      </c>
+      <c r="AS7">
+        <v>-400447.40669032239</v>
+      </c>
+      <c r="AT7">
+        <v>-410458.59185758047</v>
+      </c>
+      <c r="AU7">
+        <v>-420720.0566540201</v>
+      </c>
+      <c r="AV7">
+        <v>-431238.05807037046</v>
+      </c>
+      <c r="AW7">
+        <v>-442019.00952212967</v>
+      </c>
+      <c r="AX7">
+        <v>-453069.48476018291</v>
+      </c>
+      <c r="AY7">
+        <v>-464396.22187918739</v>
+      </c>
+      <c r="AZ7">
+        <v>-476006.12742616714</v>
+      </c>
+      <c r="BA7">
+        <v>-487906.28061182122</v>
+      </c>
+      <c r="BB7">
+        <v>-500103.93762711663</v>
+      </c>
+      <c r="BC7">
+        <v>-512606.53606779454</v>
+      </c>
+      <c r="BD7">
+        <v>-525421.69946948928</v>
+      </c>
+      <c r="BE7">
+        <v>-538557.24195622653</v>
+      </c>
+      <c r="BF7">
+        <v>-552021.17300513224</v>
+      </c>
+      <c r="BG7">
+        <v>-565821.70233026054</v>
+      </c>
+      <c r="BH7">
+        <v>-579967.24488851684</v>
+      </c>
+      <c r="BI7">
+        <v>-594466.42601072975</v>
+      </c>
+      <c r="BJ7">
+        <v>-609328.08666099794</v>
+      </c>
+      <c r="BK7">
+        <v>-624561.28882752312</v>
+      </c>
+      <c r="BL7">
+        <v>-640175.32104821096</v>
+      </c>
+      <c r="BM7">
+        <v>-656179.70407441608</v>
+      </c>
+      <c r="BN7">
+        <v>-672584.19667627627</v>
+      </c>
+      <c r="BO7">
+        <v>-689398.80159318331</v>
+      </c>
+      <c r="BP7">
+        <v>-706633.7716330128</v>
+      </c>
+      <c r="BQ7">
+        <v>-724188.97592383809</v>
+      </c>
+      <c r="BR7">
+        <v>-742407.10632193368</v>
+      </c>
+      <c r="BS7">
+        <v>-760967.28397998202</v>
+      </c>
+      <c r="BT7">
+        <v>-779991.46607948164</v>
+      </c>
+      <c r="BU7">
+        <v>-799491.25273146853</v>
+      </c>
+      <c r="BV7">
+        <v>-819478.53404975543</v>
+      </c>
+      <c r="BW7">
+        <v>-839965.4974009993</v>
+      </c>
+      <c r="BX7">
+        <v>-860964.63483602391</v>
+      </c>
+      <c r="BY7">
+        <v>-882488.75070692447</v>
+      </c>
+      <c r="BZ7">
+        <v>-904550.96947459737</v>
+      </c>
+      <c r="CA7">
+        <v>-927164.74371146248</v>
+      </c>
+      <c r="CB7">
+        <v>-950343.86230424908</v>
+      </c>
+      <c r="CC7">
+        <v>-974102.45886185544</v>
+      </c>
+      <c r="CD7">
+        <v>-998455.02033340139</v>
+      </c>
+      <c r="CE7">
+        <v>-1023416.3958417363</v>
+      </c>
+      <c r="CF7">
+        <v>-1049001.8057377797</v>
+      </c>
+      <c r="CG7">
+        <v>-1075226.850881224</v>
+      </c>
+      <c r="CH7">
+        <v>-1102107.5221532544</v>
+      </c>
+      <c r="CI7">
+        <v>-1129660.2102070861</v>
+      </c>
+      <c r="CJ7">
+        <v>-1157901.715462263</v>
+      </c>
+      <c r="CK7">
+        <v>-1186849.2583488193</v>
+      </c>
+      <c r="CL7">
+        <v>-1216520.4898075396</v>
+      </c>
+      <c r="CM7">
+        <v>-1246933.5020527281</v>
+      </c>
+      <c r="CN7">
+        <v>-1278106.8396040464</v>
+      </c>
+      <c r="CO7">
+        <v>-1310059.5105941477</v>
+      </c>
+      <c r="CP7">
+        <v>-1342810.9983590012</v>
+      </c>
+      <c r="CQ7">
+        <v>-1376381.2733179762</v>
+      </c>
+      <c r="CR7">
+        <v>-1410790.8051509252</v>
+      </c>
+      <c r="CS7">
+        <v>-1446060.5752796978</v>
+      </c>
+      <c r="CT7">
+        <v>-1482212.0896616899</v>
+      </c>
+      <c r="CU7">
+        <v>-1519267.3919032323</v>
+      </c>
+      <c r="CV7">
+        <v>-1557249.0767008127</v>
+      </c>
+      <c r="CW7">
+        <v>-1596180.3036183333</v>
+      </c>
+      <c r="CX7">
+        <v>-1636084.8112087913</v>
+      </c>
+      <c r="CY7">
+        <v>-1676986.9314890113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>